--- a/biology/Zoologie/Andinodelphys_cochabambensis/Andinodelphys_cochabambensis.xlsx
+++ b/biology/Zoologie/Andinodelphys_cochabambensis/Andinodelphys_cochabambensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andinodelphys
 Andinodelphys cochabambensis, unique représentant du genre Andinodelphys, est une espèce fossile de marsupiaux américains de la sous-famille des Didelphinae, dans laquelle sont classées la plupart des espèces actuelles d’opossums. Cette espèce a vécu dans l'actuelle Bolivie durant le Paléocène.
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Andinodelphys et l'espèce Andinodelphys cochabambensis ont été créés en 1988 par Larry G. Marshall (d) &amp; Christian de Muizon (d)[2].
-Étymologie
-Le nom du genre Andinodelphys est une combinaison basée sur le préfixe Andino pour rappeler l'origine andine de celui-ci et du suffixe delphys en référence à la famille des Didelphinae[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Andinodelphys et l'espèce Andinodelphys cochabambensis ont été créés en 1988 par Larry G. Marshall (d) &amp; Christian de Muizon (d).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Andinodelphys_cochabambensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andinodelphys_cochabambensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Andinodelphys est une combinaison basée sur le préfixe Andino pour rappeler l'origine andine de celui-ci et du suffixe delphys en référence à la famille des Didelphinae.
 Son épithète spécifique, composée de cochabamb[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte, le département de Cochabamba en Bolivie. 
 </t>
         </is>
